--- a/Agriculture/documents/智慧农业项目开支.xlsx
+++ b/Agriculture/documents/智慧农业项目开支.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -446,6 +446,14 @@
   </si>
   <si>
     <t>王开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王开发票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转陈海颖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="A22:D30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1056,7 +1064,7 @@
         <v>-58.84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1.3</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>-68.84</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>3.22</v>
       </c>
@@ -1084,7 +1092,7 @@
         <v>-98.84</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>4.4000000000000004</v>
       </c>
@@ -1098,7 +1106,7 @@
         <v>-140.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>3.2</v>
       </c>
@@ -1112,7 +1120,7 @@
         <v>-422.02</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>4.7</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>-525.25</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>4.17</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>218.55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>4.22</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>183.49</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>5.6</v>
       </c>
@@ -1168,7 +1176,7 @@
         <v>161.49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>5.6</v>
       </c>
@@ -1182,7 +1190,7 @@
         <v>146.44999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5.6</v>
       </c>
@@ -1196,7 +1204,7 @@
         <v>137.44999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>6.28</v>
       </c>
@@ -1210,7 +1218,7 @@
         <v>33.25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>7.7</v>
       </c>
@@ -1224,7 +1232,7 @@
         <v>19.670000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>11.12</v>
       </c>
@@ -1238,9 +1246,21 @@
         <v>330.57</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>11.12</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="1">
+        <v>206</v>
+      </c>
       <c r="D30" s="1">
         <v>124.57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
